--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H2">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I2">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J2">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>27.26851950862806</v>
+        <v>36.59801732877911</v>
       </c>
       <c r="R2">
-        <v>27.26851950862806</v>
+        <v>329.3821559590119</v>
       </c>
       <c r="S2">
-        <v>0.05890056609245609</v>
+        <v>0.0637240286999695</v>
       </c>
       <c r="T2">
-        <v>0.05890056609245609</v>
+        <v>0.06372402869996951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H3">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I3">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J3">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>15.14207930351043</v>
+        <v>18.84464489726278</v>
       </c>
       <c r="R3">
-        <v>15.14207930351043</v>
+        <v>169.601804075365</v>
       </c>
       <c r="S3">
-        <v>0.03270720445645858</v>
+        <v>0.03281206961256902</v>
       </c>
       <c r="T3">
-        <v>0.03270720445645858</v>
+        <v>0.03281206961256902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H4">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I4">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J4">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>0.3156223143854854</v>
+        <v>0.5028536813494444</v>
       </c>
       <c r="R4">
-        <v>0.3156223143854854</v>
+        <v>4.525683132145</v>
       </c>
       <c r="S4">
-        <v>0.0006817507266147709</v>
+        <v>0.0008755627971409097</v>
       </c>
       <c r="T4">
-        <v>0.0006817507266147709</v>
+        <v>0.0008755627971409097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H5">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I5">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J5">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.0876487153747</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N5">
-        <v>15.0876487153747</v>
+        <v>0.426419</v>
       </c>
       <c r="O5">
-        <v>0.2768369968884832</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P5">
-        <v>0.2768369968884832</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q5">
-        <v>16.35620004641772</v>
+        <v>0.1908973153445555</v>
       </c>
       <c r="R5">
-        <v>16.35620004641772</v>
+        <v>1.718075838101</v>
       </c>
       <c r="S5">
-        <v>0.03532973037097349</v>
+        <v>0.0003323881152490125</v>
       </c>
       <c r="T5">
-        <v>0.03532973037097349</v>
+        <v>0.0003323881152490125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.62077908070913</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H6">
-        <v>1.62077908070913</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I6">
-        <v>0.1908003497729125</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J6">
-        <v>0.1908003497729125</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.1536323942571</v>
+        <v>18.009092</v>
       </c>
       <c r="N6">
-        <v>25.1536323942571</v>
+        <v>54.027276</v>
       </c>
       <c r="O6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q6">
-        <v>40.76848118845942</v>
+        <v>24.18668479542266</v>
       </c>
       <c r="R6">
-        <v>40.76848118845942</v>
+        <v>217.680163158804</v>
       </c>
       <c r="S6">
-        <v>0.08806076252031626</v>
+        <v>0.0421135653938455</v>
       </c>
       <c r="T6">
-        <v>0.08806076252031626</v>
+        <v>0.04211356539384551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H7">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I7">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J7">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9676925388148</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N7">
-        <v>13.9676925388148</v>
+        <v>81.751228</v>
       </c>
       <c r="O7">
-        <v>0.2562873863816051</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P7">
-        <v>0.2562873863816051</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q7">
-        <v>22.63854387268803</v>
+        <v>46.115622461116</v>
       </c>
       <c r="R7">
-        <v>22.63854387268803</v>
+        <v>415.040602150044</v>
       </c>
       <c r="S7">
-        <v>0.04889972296399583</v>
+        <v>0.08029596857199879</v>
       </c>
       <c r="T7">
-        <v>0.04889972296399583</v>
+        <v>0.08029596857199879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H8">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I8">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J8">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.291143333577943</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N8">
-        <v>0.291143333577943</v>
+        <v>42.094435</v>
       </c>
       <c r="O8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q8">
-        <v>0.47187902455105</v>
+        <v>23.745344500195</v>
       </c>
       <c r="R8">
-        <v>0.47187902455105</v>
+        <v>213.708100501755</v>
       </c>
       <c r="S8">
-        <v>0.001019268452195159</v>
+        <v>0.04134510896663285</v>
       </c>
       <c r="T8">
-        <v>0.001019268452195159</v>
+        <v>0.04134510896663285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H9">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I9">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J9">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.0876487153747</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N9">
-        <v>15.0876487153747</v>
+        <v>1.123255</v>
       </c>
       <c r="O9">
-        <v>0.2768369968884832</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P9">
-        <v>0.2768369968884832</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q9">
-        <v>24.45374541496729</v>
+        <v>0.633624775735</v>
       </c>
       <c r="R9">
-        <v>24.45374541496729</v>
+        <v>5.702622981615001</v>
       </c>
       <c r="S9">
-        <v>0.0528205958364053</v>
+        <v>0.001103259857801041</v>
       </c>
       <c r="T9">
-        <v>0.0528205958364053</v>
+        <v>0.001103259857801041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5387256480317369</v>
+        <v>1.692291</v>
       </c>
       <c r="H10">
-        <v>0.5387256480317369</v>
+        <v>5.076873</v>
       </c>
       <c r="I10">
-        <v>0.06341952663352596</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J10">
-        <v>0.06341952663352596</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>25.1536323942571</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N10">
-        <v>25.1536323942571</v>
+        <v>0.426419</v>
       </c>
       <c r="O10">
-        <v>0.4615335486812511</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P10">
-        <v>0.4615335486812511</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q10">
-        <v>13.55090691194825</v>
+        <v>0.240541678643</v>
       </c>
       <c r="R10">
-        <v>13.55090691194825</v>
+        <v>2.164875107787</v>
       </c>
       <c r="S10">
-        <v>0.02927023918285635</v>
+        <v>0.0004188282850320384</v>
       </c>
       <c r="T10">
-        <v>0.02927023918285635</v>
+        <v>0.0004188282850320384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5387256480317369</v>
+        <v>1.692291</v>
       </c>
       <c r="H11">
-        <v>0.5387256480317369</v>
+        <v>5.076873</v>
       </c>
       <c r="I11">
-        <v>0.06341952663352596</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J11">
-        <v>0.06341952663352596</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9676925388148</v>
+        <v>18.009092</v>
       </c>
       <c r="N11">
-        <v>13.9676925388148</v>
+        <v>54.027276</v>
       </c>
       <c r="O11">
-        <v>0.2562873863816051</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P11">
-        <v>0.2562873863816051</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q11">
-        <v>7.52475421448106</v>
+        <v>30.476624309772</v>
       </c>
       <c r="R11">
-        <v>7.52475421448106</v>
+        <v>274.289618787948</v>
       </c>
       <c r="S11">
-        <v>0.01625362472646496</v>
+        <v>0.05306553261471136</v>
       </c>
       <c r="T11">
-        <v>0.01625362472646496</v>
+        <v>0.05306553261471136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H12">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I12">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J12">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.291143333577943</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N12">
-        <v>0.291143333577943</v>
+        <v>81.751228</v>
       </c>
       <c r="O12">
-        <v>0.005342068048660686</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P12">
-        <v>0.005342068048660686</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q12">
-        <v>0.1568463810518975</v>
+        <v>16.13175181796534</v>
       </c>
       <c r="R12">
-        <v>0.1568463810518975</v>
+        <v>145.185766361688</v>
       </c>
       <c r="S12">
-        <v>0.0003387914268901444</v>
+        <v>0.02808841272995543</v>
       </c>
       <c r="T12">
-        <v>0.0003387914268901444</v>
+        <v>0.02808841272995543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H13">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I13">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J13">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.0876487153747</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N13">
-        <v>15.0876487153747</v>
+        <v>42.094435</v>
       </c>
       <c r="O13">
-        <v>0.2768369968884832</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P13">
-        <v>0.2768369968884832</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q13">
-        <v>8.128103331465439</v>
+        <v>8.306382606723336</v>
       </c>
       <c r="R13">
-        <v>8.128103331465439</v>
+        <v>74.75744346051002</v>
       </c>
       <c r="S13">
-        <v>0.0175568712973145</v>
+        <v>0.01446297374168228</v>
       </c>
       <c r="T13">
-        <v>0.0175568712973145</v>
+        <v>0.01446297374168228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40693487784781</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H14">
-        <v>1.40693487784781</v>
+        <v>1.775946</v>
       </c>
       <c r="I14">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J14">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.1536323942571</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N14">
-        <v>25.1536323942571</v>
+        <v>1.123255</v>
       </c>
       <c r="O14">
-        <v>0.4615335486812511</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P14">
-        <v>0.4615335486812511</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q14">
-        <v>35.38952272004283</v>
+        <v>0.2216489138033334</v>
       </c>
       <c r="R14">
-        <v>35.38952272004283</v>
+        <v>1.994840224230001</v>
       </c>
       <c r="S14">
-        <v>0.07644210098362003</v>
+        <v>0.0003859324295530593</v>
       </c>
       <c r="T14">
-        <v>0.07644210098362003</v>
+        <v>0.0003859324295530593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40693487784781</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H15">
-        <v>1.40693487784781</v>
+        <v>1.775946</v>
       </c>
       <c r="I15">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J15">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>13.9676925388148</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N15">
-        <v>13.9676925388148</v>
+        <v>0.426419</v>
       </c>
       <c r="O15">
-        <v>0.2562873863816051</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P15">
-        <v>0.2562873863816051</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q15">
-        <v>19.65163379591317</v>
+        <v>0.08414412415266669</v>
       </c>
       <c r="R15">
-        <v>19.65163379591317</v>
+        <v>0.7572971173740001</v>
       </c>
       <c r="S15">
-        <v>0.04244793542438869</v>
+        <v>0.0001465107394826517</v>
       </c>
       <c r="T15">
-        <v>0.04244793542438869</v>
+        <v>0.0001465107394826517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.40693487784781</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H16">
-        <v>1.40693487784781</v>
+        <v>1.775946</v>
       </c>
       <c r="I16">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J16">
-        <v>0.165626315144456</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.291143333577943</v>
+        <v>18.009092</v>
       </c>
       <c r="N16">
-        <v>0.291143333577943</v>
+        <v>54.027276</v>
       </c>
       <c r="O16">
-        <v>0.005342068048660686</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P16">
-        <v>0.005342068048660686</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q16">
-        <v>0.4096197104636874</v>
+        <v>10.661058300344</v>
       </c>
       <c r="R16">
-        <v>0.4096197104636874</v>
+        <v>95.94952470309602</v>
       </c>
       <c r="S16">
-        <v>0.000884787046150604</v>
+        <v>0.01856290680995294</v>
       </c>
       <c r="T16">
-        <v>0.000884787046150604</v>
+        <v>0.01856290680995294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H17">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I17">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J17">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.0876487153747</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N17">
-        <v>15.0876487153747</v>
+        <v>81.751228</v>
       </c>
       <c r="O17">
-        <v>0.2768369968884832</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P17">
-        <v>0.2768369968884832</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q17">
-        <v>21.22733920237637</v>
+        <v>45.37386631906266</v>
       </c>
       <c r="R17">
-        <v>21.22733920237637</v>
+        <v>408.364796871564</v>
       </c>
       <c r="S17">
-        <v>0.04585149169029672</v>
+        <v>0.07900443167643545</v>
       </c>
       <c r="T17">
-        <v>0.04585149169029672</v>
+        <v>0.07900443167643544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.60703073572011</v>
+        <v>1.665071</v>
       </c>
       <c r="H18">
-        <v>2.60703073572011</v>
+        <v>4.995213</v>
       </c>
       <c r="I18">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J18">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.1536323942571</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N18">
-        <v>25.1536323942571</v>
+        <v>42.094435</v>
       </c>
       <c r="O18">
-        <v>0.4615335486812511</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P18">
-        <v>0.4615335486812511</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q18">
-        <v>65.57629276683329</v>
+        <v>23.36340765996167</v>
       </c>
       <c r="R18">
-        <v>65.57629276683329</v>
+        <v>210.270668939655</v>
       </c>
       <c r="S18">
-        <v>0.1416461485922982</v>
+        <v>0.04068008512258254</v>
       </c>
       <c r="T18">
-        <v>0.1416461485922982</v>
+        <v>0.04068008512258253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.60703073572011</v>
+        <v>1.665071</v>
       </c>
       <c r="H19">
-        <v>2.60703073572011</v>
+        <v>4.995213</v>
       </c>
       <c r="I19">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J19">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.9676925388148</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N19">
-        <v>13.9676925388148</v>
+        <v>1.123255</v>
       </c>
       <c r="O19">
-        <v>0.2562873863816051</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P19">
-        <v>0.2562873863816051</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q19">
-        <v>36.41420375577864</v>
+        <v>0.6234331087016667</v>
       </c>
       <c r="R19">
-        <v>36.41420375577864</v>
+        <v>5.610897978315</v>
       </c>
       <c r="S19">
-        <v>0.07865543321274771</v>
+        <v>0.001085514249433837</v>
       </c>
       <c r="T19">
-        <v>0.07865543321274771</v>
+        <v>0.001085514249433837</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.60703073572011</v>
+        <v>1.665071</v>
       </c>
       <c r="H20">
-        <v>2.60703073572011</v>
+        <v>4.995213</v>
       </c>
       <c r="I20">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J20">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.291143333577943</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N20">
-        <v>0.291143333577943</v>
+        <v>0.426419</v>
       </c>
       <c r="O20">
-        <v>0.005342068048660686</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P20">
-        <v>0.005342068048660686</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q20">
-        <v>0.7590196191377101</v>
+        <v>0.2366726369163333</v>
       </c>
       <c r="R20">
-        <v>0.7590196191377101</v>
+        <v>2.130053732247</v>
       </c>
       <c r="S20">
-        <v>0.001639498074999849</v>
+        <v>0.0004120915559951458</v>
       </c>
       <c r="T20">
-        <v>0.001639498074999849</v>
+        <v>0.0004120915559951457</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.60703073572011</v>
+        <v>1.665071</v>
       </c>
       <c r="H21">
-        <v>2.60703073572011</v>
+        <v>4.995213</v>
       </c>
       <c r="I21">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J21">
-        <v>0.3069032554557011</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.0876487153747</v>
+        <v>18.009092</v>
       </c>
       <c r="N21">
-        <v>15.0876487153747</v>
+        <v>54.027276</v>
       </c>
       <c r="O21">
-        <v>0.2768369968884832</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P21">
-        <v>0.2768369968884832</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q21">
-        <v>39.33396393072988</v>
+        <v>29.986416825532</v>
       </c>
       <c r="R21">
-        <v>39.33396393072988</v>
+        <v>269.877751429788</v>
       </c>
       <c r="S21">
-        <v>0.08496217557565529</v>
+        <v>0.05221198922425875</v>
       </c>
       <c r="T21">
-        <v>0.08496217557565529</v>
+        <v>0.05221198922425875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.23708455985763</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H22">
-        <v>1.23708455985763</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I22">
-        <v>0.1456313013469016</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J22">
-        <v>0.1456313013469016</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N22">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O22">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P22">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q22">
-        <v>31.11717025927017</v>
+        <v>76.80741332139777</v>
       </c>
       <c r="R22">
-        <v>31.11717025927017</v>
+        <v>691.26671989258</v>
       </c>
       <c r="S22">
-        <v>0.06721373130970414</v>
+        <v>0.1337361466030665</v>
       </c>
       <c r="T22">
-        <v>0.06721373130970414</v>
+        <v>0.1337361466030665</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.23708455985763</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H23">
-        <v>1.23708455985763</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I23">
-        <v>0.1456313013469016</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J23">
-        <v>0.1456313013469016</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N23">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O23">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P23">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q23">
-        <v>17.27921677660641</v>
+        <v>39.54882081496945</v>
       </c>
       <c r="R23">
-        <v>17.27921677660641</v>
+        <v>355.939387334725</v>
       </c>
       <c r="S23">
-        <v>0.03732346559754932</v>
+        <v>0.0688619323288117</v>
       </c>
       <c r="T23">
-        <v>0.03732346559754932</v>
+        <v>0.0688619323288117</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,114 +1901,486 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.23708455985763</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H24">
-        <v>1.23708455985763</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I24">
-        <v>0.1456313013469016</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J24">
-        <v>0.1456313013469016</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N24">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O24">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P24">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q24">
-        <v>0.3601689226747528</v>
+        <v>1.055327401936111</v>
       </c>
       <c r="R24">
-        <v>0.3601689226747528</v>
+        <v>9.497946617425002</v>
       </c>
       <c r="S24">
-        <v>0.0007779723218101587</v>
+        <v>0.001837523411301265</v>
       </c>
       <c r="T24">
-        <v>0.0007779723218101587</v>
+        <v>0.001837523411301265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.818578333333333</v>
+      </c>
+      <c r="H25">
+        <v>8.455735000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.2935159442017589</v>
+      </c>
+      <c r="J25">
+        <v>0.293515944201759</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.426419</v>
+      </c>
+      <c r="O25">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P25">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q25">
+        <v>0.4006317847738889</v>
+      </c>
+      <c r="R25">
+        <v>3.605686062965</v>
+      </c>
+      <c r="S25">
+        <v>0.0006975752571977638</v>
+      </c>
+      <c r="T25">
+        <v>0.0006975752571977638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.818578333333333</v>
+      </c>
+      <c r="H26">
+        <v>8.455735000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2935159442017589</v>
+      </c>
+      <c r="J26">
+        <v>0.293515944201759</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.009092</v>
+      </c>
+      <c r="N26">
+        <v>54.027276</v>
+      </c>
+      <c r="O26">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P26">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q26">
+        <v>50.76003651420667</v>
+      </c>
+      <c r="R26">
+        <v>456.8403286278601</v>
+      </c>
+      <c r="S26">
+        <v>0.08838276660138167</v>
+      </c>
+      <c r="T26">
+        <v>0.08838276660138168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.23708455985763</v>
-      </c>
-      <c r="H25">
-        <v>1.23708455985763</v>
-      </c>
-      <c r="I25">
-        <v>0.1456313013469016</v>
-      </c>
-      <c r="J25">
-        <v>0.1456313013469016</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="N25">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="O25">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="P25">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="Q25">
-        <v>18.66469727034585</v>
-      </c>
-      <c r="R25">
-        <v>18.66469727034585</v>
-      </c>
-      <c r="S25">
-        <v>0.04031613211783795</v>
-      </c>
-      <c r="T25">
-        <v>0.04031613211783795</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.491863</v>
+      </c>
+      <c r="H27">
+        <v>4.475588999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1553568946039588</v>
+      </c>
+      <c r="J27">
+        <v>0.1553568946039589</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N27">
+        <v>81.751228</v>
+      </c>
+      <c r="O27">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P27">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q27">
+        <v>40.65387741925466</v>
+      </c>
+      <c r="R27">
+        <v>365.8848967732919</v>
+      </c>
+      <c r="S27">
+        <v>0.07078604363063316</v>
+      </c>
+      <c r="T27">
+        <v>0.07078604363063316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.491863</v>
+      </c>
+      <c r="H28">
+        <v>4.475588999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1553568946039588</v>
+      </c>
+      <c r="J28">
+        <v>0.1553568946039589</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N28">
+        <v>42.094435</v>
+      </c>
+      <c r="O28">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P28">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q28">
+        <v>20.93304336080167</v>
+      </c>
+      <c r="R28">
+        <v>188.397390247215</v>
+      </c>
+      <c r="S28">
+        <v>0.0364483639623964</v>
+      </c>
+      <c r="T28">
+        <v>0.0364483639623964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.491863</v>
+      </c>
+      <c r="H29">
+        <v>4.475588999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1553568946039588</v>
+      </c>
+      <c r="J29">
+        <v>0.1553568946039589</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N29">
+        <v>1.123255</v>
+      </c>
+      <c r="O29">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P29">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q29">
+        <v>0.5585808580216666</v>
+      </c>
+      <c r="R29">
+        <v>5.027227722195</v>
+      </c>
+      <c r="S29">
+        <v>0.0009725942885937671</v>
+      </c>
+      <c r="T29">
+        <v>0.0009725942885937672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.491863</v>
+      </c>
+      <c r="H30">
+        <v>4.475588999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1553568946039588</v>
+      </c>
+      <c r="J30">
+        <v>0.1553568946039589</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.426419</v>
+      </c>
+      <c r="O30">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P30">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q30">
+        <v>0.2120529095323333</v>
+      </c>
+      <c r="R30">
+        <v>1.908476185791</v>
+      </c>
+      <c r="S30">
+        <v>0.000369223982041358</v>
+      </c>
+      <c r="T30">
+        <v>0.000369223982041358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.491863</v>
+      </c>
+      <c r="H31">
+        <v>4.475588999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1553568946039588</v>
+      </c>
+      <c r="J31">
+        <v>0.1553568946039589</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>18.009092</v>
+      </c>
+      <c r="N31">
+        <v>54.027276</v>
+      </c>
+      <c r="O31">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P31">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q31">
+        <v>26.86709801839599</v>
+      </c>
+      <c r="R31">
+        <v>241.803882165564</v>
+      </c>
+      <c r="S31">
+        <v>0.04678066874029414</v>
+      </c>
+      <c r="T31">
+        <v>0.04678066874029415</v>
       </c>
     </row>
   </sheetData>
